--- a/monarch_maps/Map Plan.xlsx
+++ b/monarch_maps/Map Plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motte\Documents\Hub Repository\Butterflies\monarch_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5E020-9CF2-4408-A214-CED5EE364D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2889A-11DA-491E-9D5B-A2F5CC5F2F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4113FE50-9C9D-497E-B13A-BF21146BBF4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4113FE50-9C9D-497E-B13A-BF21146BBF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>2020 - 2021 Migration</t>
   </si>
@@ -269,6 +270,36 @@
   </si>
   <si>
     <t>JNorth_Captive_Reared_Site_2020_1.geojson</t>
+  </si>
+  <si>
+    <t>Season 2021-2022</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Season Start Month Sighting</t>
+  </si>
+  <si>
+    <t>Tagging Season Start</t>
+  </si>
+  <si>
+    <t>12/31/20222</t>
+  </si>
+  <si>
+    <t>Tagging Season End</t>
+  </si>
+  <si>
+    <t>Domestic Tag Recoveries Season Start</t>
+  </si>
+  <si>
+    <t>Domestic Tag Recoveries Season End</t>
+  </si>
+  <si>
+    <t>Season Mexico Tag Recoveries</t>
+  </si>
+  <si>
+    <t>Season 2020-2021</t>
   </si>
 </sst>
 </file>
@@ -312,10 +343,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15242094-440D-4F03-9605-EE8C8AD9BCB7}">
   <dimension ref="A1:C421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,4 +1954,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C52F9D-1F02-4510-B735-8A7A0B04BE3D}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44409</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44409</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43831</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>43101</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>42370</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>42005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>41640</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>41275</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>40909</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>40544</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>40179</v>
+      </c>
+      <c r="C13" s="3">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>39814</v>
+      </c>
+      <c r="C14" s="3">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>39448</v>
+      </c>
+      <c r="C15" s="3">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>39083</v>
+      </c>
+      <c r="C16" s="3">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>38718</v>
+      </c>
+      <c r="C17" s="3">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>38353</v>
+      </c>
+      <c r="C18" s="3">
+        <v>39082</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>37987</v>
+      </c>
+      <c r="C19" s="3">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>37622</v>
+      </c>
+      <c r="C20" s="3">
+        <v>38352</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>37257</v>
+      </c>
+      <c r="C21" s="3">
+        <v>37986</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>36892</v>
+      </c>
+      <c r="C22" s="3">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>36526</v>
+      </c>
+      <c r="C23" s="3">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>35796</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>35431</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>34335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>33970</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>33604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>